--- a/TEMOA_Europe_Results/1_Results_bau/_7_Biorefineries.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_7_Biorefineries.xlsx
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8638.650786866416</v>
+        <v>8238.214265354658</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4188.979925067167</v>
+        <v>3994.803705740565</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>118.0707830042187</v>
+        <v>112.5977230548271</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7081.925830359498</v>
+        <v>7482.206056629149</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -645,28 +645,28 @@
         <v>138856.2167934879</v>
       </c>
       <c r="E6">
-        <v>123939.8180559077</v>
+        <v>123933.3469966846</v>
       </c>
       <c r="F6">
-        <v>112581.7823997816</v>
+        <v>112580.6240311519</v>
       </c>
       <c r="G6">
         <v>127816.9157232852</v>
       </c>
       <c r="H6">
-        <v>99789.38654871049</v>
+        <v>99366.57559681301</v>
       </c>
       <c r="I6">
-        <v>87897.8671028853</v>
+        <v>87482.87342733657</v>
       </c>
       <c r="J6">
-        <v>79041.6347280367</v>
+        <v>78626.64105248819</v>
       </c>
       <c r="K6">
-        <v>117251.2096478542</v>
+        <v>117251.2096478541</v>
       </c>
       <c r="L6">
-        <v>136028.3374482378</v>
+        <v>136028.3374482377</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -680,31 +680,31 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>3651.799532905332</v>
+        <v>3651.799532905333</v>
       </c>
       <c r="E7">
-        <v>3260.121463772602</v>
+        <v>3260.121463772603</v>
       </c>
       <c r="F7">
         <v>2960.819902898299</v>
       </c>
       <c r="G7">
-        <v>3361.475372974327</v>
+        <v>3361.475372974322</v>
       </c>
       <c r="H7">
-        <v>2624.375369015389</v>
+        <v>2613.255803235033</v>
       </c>
       <c r="I7">
-        <v>2311.638595966308</v>
+        <v>2300.724617856265</v>
       </c>
       <c r="J7">
-        <v>2078.72727232084</v>
+        <v>2067.813294210803</v>
       </c>
       <c r="K7">
-        <v>3083.606355640684</v>
+        <v>3083.606355640676</v>
       </c>
       <c r="L7">
-        <v>3577.42872898623</v>
+        <v>3577.428728986228</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>654.4024762966354</v>
+        <v>654.4024762966357</v>
       </c>
       <c r="E8">
-        <v>584.2137663080503</v>
+        <v>584.2137663080501</v>
       </c>
       <c r="F8">
         <v>530.578926599375</v>
       </c>
       <c r="G8">
-        <v>602.3763868369986</v>
+        <v>602.3763868369981</v>
       </c>
       <c r="H8">
-        <v>470.2880661275577</v>
+        <v>468.2954399397179</v>
       </c>
       <c r="I8">
-        <v>414.2456363971622</v>
+        <v>412.2898515198425</v>
       </c>
       <c r="J8">
-        <v>372.5079271998946</v>
+        <v>370.5521423225758</v>
       </c>
       <c r="K8">
-        <v>552.5822589308096</v>
+        <v>552.5822589308092</v>
       </c>
       <c r="L8">
-        <v>641.0752282343323</v>
+        <v>641.0752282343319</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1441.788439325443</v>
+        <v>1374.955694068846</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1182.432990401262</v>
+        <v>1249.265735657857</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -880,31 +880,31 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>6544.024762966356</v>
+        <v>6544.02476296636</v>
       </c>
       <c r="E4">
         <v>5842.137663080503</v>
       </c>
       <c r="F4">
-        <v>5305.789265993753</v>
+        <v>5305.789265993748</v>
       </c>
       <c r="G4">
-        <v>6023.763868369987</v>
+        <v>6023.763868369985</v>
       </c>
       <c r="H4">
-        <v>4702.880661275578</v>
+        <v>4682.954399397181</v>
       </c>
       <c r="I4">
-        <v>4142.456363971623</v>
+        <v>4122.898515198427</v>
       </c>
       <c r="J4">
-        <v>3725.079271998946</v>
+        <v>3705.521423225759</v>
       </c>
       <c r="K4">
-        <v>5525.822589308097</v>
+        <v>5525.82258930809</v>
       </c>
       <c r="L4">
-        <v>6410.752282343324</v>
+        <v>6410.752282343317</v>
       </c>
     </row>
   </sheetData>
